--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="157">
   <si>
     <t>event_mw_endurance_race.Description.Details</t>
   </si>
@@ -27,7 +27,7 @@
     <t>"The crew is bubbling with enthusiasm about a local endurance competition.\r\n\r\nIn the morning briefing, Darius says, \"[[TGT_MW,{TGT_MW.Callsign}]] has requested permission to compete. Given the general interest, I'd like you to make the call.\"\r\n\r\nSumire says, \"Let {TGT_MW.Obj} go. It'll be entertaining.\""</t>
   </si>
   <si>
-    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\n\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»\n\nСумирэ говорит: «Отпусти {TGT_MW.Obj}. Это будет забавно.»"</t>
+    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\r\n\r\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»\r\n\r\nСумирэ говорит: «Отпусти {TGT_MW.Obj}. Это будет забавно.»"</t>
   </si>
   <si>
     <t/>
@@ -48,7 +48,7 @@
     <t>"non-participation choice"</t>
   </si>
   <si>
-    <t>"Выбор не участия"</t>
+    <t>"выбор не участия"</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_0.Options0.Name</t>
@@ -66,7 +66,7 @@
     <t>"Darius nods and the briefing continues to other topics.\r\n\r\nWhile some of the crew initially expresses discontent, the immediacy of the work at hand soon drowns out any thoughts of surface sports.\r\n\r\nExcept, that is, for [[TGT_MW,{TGT_MW.Callsign}]] who takes a few more days to shake off the thoughts of what might have been."</t>
   </si>
   <si>
-    <t>"Дариус кивает, и брифинг переходит к другим темам.\n\nХотя часть экипажа изначально выражает недовольство, непосредственность предстоящей работы вскоре заглушает любые мысли о наземных видах спорта.\n\nЗа исключением, конечно, [[TGT_MW,{TGT_MW.Callsign}]], которому требуется еще несколько дней, чтобы избавиться от мыслей о том, что могло бы быть."</t>
+    <t>"Дариус кивает, и брифинг переходит к другим темам.\r\n\r\nХотя часть экипажа изначально выражает недовольство, непосредственность предстоящей работы вскоре заглушает любые мысли о наземных видах спорта.\r\n\r\nЗа исключением, конечно, [[TGT_MW,{TGT_MW.Callsign}]], которому требуется еще несколько дней, чтобы избавиться от мыслей о том, что могло бы быть."</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_0_0.Options0.0.Name</t>
@@ -75,7 +75,7 @@
     <t>"lower morale"</t>
   </si>
   <si>
-    <t>"Снижение морального духа"</t>
+    <t>"снижает моральный дух"</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1.Options1.Details</t>
@@ -84,7 +84,7 @@
     <t>"low cost option"</t>
   </si>
   <si>
-    <t>"Вариант с низкой стоимостью"</t>
+    <t>"вариант с низкой стоимостью"</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1.Options1.Name</t>
@@ -102,7 +102,7 @@
     <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You see {TGT_MW.Obj} in the mess hall, regaling listeners with tales of the race.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition!\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. \"I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
   </si>
   <si>
-    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите воина в столовой, кормящего слушателей рассказами о гонке.\n\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот с энтузиазмом. «Без победы, но здорово было поучаствовать. Эти местные жители,- вау! У них бесконечная выносливость! Мы держались на равных какое-то время, но потом пришлось отстать. 24 часа в перегревающейся кабине меха было бы и то менее утомительно»."</t>
+    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите воина в столовой, кормящего слушателей рассказами о гонке.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот с энтузиазмом. «Без победы, но здорово было поучаствовать. Эти местные жители,- вау! У них бесконечная выносливость! Мы держались на равных какое-то время, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. 24 часа в перегревающейся кабине меха было бы и то менее утомительно»."</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_0.Options1.0.Name</t>
@@ -111,7 +111,7 @@
     <t>"earns an athletic tag"</t>
   </si>
   <si>
-    <t>"Получает Спортивную метку"</t>
+    <t>"получает особенность «Спортивный»"</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_1.Options1.1.Details</t>
@@ -120,7 +120,7 @@
     <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You find {TGT_MW.Obj} in the mess hall, one arm in a cast, regaling listeners with tales of daring-do.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition, but I, uh, may have over-reached a little bit,\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, holding up the broken limb.\r\n\r\n\"Those locals, wow, they have endless stamina!. I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
   </si>
   <si>
-    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на неделе. Вы находите воина в столовой, с рукой в гипсе, угощающего слушателей рассказами о своих приключениях.\n\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - говорит горе-бегун, поддерживая сломанную руку.\n\n«Эти местные жители,- ух! - у них просто бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но в итоге пришлось отстать. Провести 24 часа в перегревающейся кабине меха и то менее утомительно»."</t>
+    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на неделе. Вы находите воина в столовой, с рукой в гипсе, угощающего слушателей рассказами о своих приключениях.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - говорит горе-бегун, поддерживая сломанную руку.\r\n\r\n«Эти местные жители,- ух! - у них просто бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. Провести 24 часа в перегревающейся кабине меха и то менее утомительно»."</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_1.Options1.1.Name</t>
@@ -129,7 +129,7 @@
     <t>"earns the athletic tag and injury"</t>
   </si>
   <si>
-    <t>"Получает Спортивную метку и травму"</t>
+    <t>"получает «Спортивный» и травму"</t>
   </si>
   <si>
     <t>event_mw_goodDeeds_disgraced.Description.Details</t>
@@ -138,7 +138,7 @@
     <t>"Even before you arrive at the morning briefing, you can hear Dr. Murad praising [[TGT_MW,{TGT_MW.Callsign}]], saying how valuable their support has been to the engineering team.\r\n\r\nYang chimes in. \"Yeah, and then {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:} showed up in the Mech Bay. It only took a few minutes for {TGT_MW.Callsign} to figure out what was wrong with one of my winches.\"\r\n\r\nSumire smiles. \"Well, send {TGT_MW.Callsign} to the bridge, Chief. I could use the help!\"\r\n\r\nFinally, Darius notices you standing in the doorway and explains. \"Commander, we have to do something special for {TGT_MW.Callsign}. {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:'s} the most helpful member on the ship!\""</t>
   </si>
   <si>
-    <t>"При подходе на утренний брифинг, вы можете услышать, как доктор Мурад хвалит [[TGT_MW, {TGT_MW.Callsign}]], говоря, насколько ценна была поддержка для команды инженеров.\n\nИ тут вмешивается Ян: «Да, а потом {TGT_MW.Subj_C} {TGT_MW.Gender? NonBinary: 're | Default:} появился в мехбее. {TGT_MW.Callsign} потребовалось всего несколько минут, чтобы выяснить, что случилось с одной из моих лебедок.»\n\nСумире улыбается: «Что ж, пошлите {TGT_MW.Callsign} на мостик, шеф. Мне бы не помешала помощь!»\n\nНаконец, Дариус замечает, что вы стоите в дверном проеме, и объясняет: «Командир, мы должны сделать что-то особенное для {TGT_MW.Callsign}. {TGT_MW.Subj_C}. {TGT_MW.Subj_C}» {TGT_MW.Gender? NonBinary: 're | Default:' s} самый полезный участник на корабле!»"</t>
+    <t>"Ещё перед прибытием на утренний брифинг, вы слышите, как доктор Мурад хвалит [[TGT_MW, {TGT_MW.Callsign}]], говоря, насколько ценна была {TGT_MW.Gender?Female:её|Default:его} поддержка для команды инженеров.\r\n\r\nТут вмешивается Ян: «Да, а когда {TGT_MW.Subj_C} {TGT_MW.Gender?Female:появилась|Default:появился} в мехотсеке, {TGT_MW.Gender?Female:ей|Default:ему} потребовалось всего пара минут, чтобы выяснить, что случилось с одной из моих лебедок.»\r\n\r\nСумир, улыбаясь: «Что ж, шеф, пришлите, пожалуйста, {TGT_MW.Callsign} и к нам на мостик. Мне бы не помешала помощь!»\r\n\r\nНаконец, Дариус замечает, что вы стоите в дверном проеме, и поясняет: «Командир, надо устроить что-то особенное для {TGT_MW.Callsign}. {TGT_MW.Gender?Female:Она|Default:Он} - самый полезный человек на корабле!»"</t>
   </si>
   <si>
     <t>event_mw_goodDeeds_disgraced.Description.Name</t>
@@ -174,7 +174,7 @@
     <t>"Later in the week, Darius delivers an update on the situation.\r\n\r\nRelocating [[TGT_MW,{TGT_MW.Callsign}]] near the officers area has not only kept {TGT_MW.OBJ} more involved with the crew, it's also given the lucky MechWarrior the solitude {TGT_MW.SUBJ} craved.\r\n\r\n\"Commander, I don't know if you've went to visit, but it's kind of impressive what {TGT_MW.CALLSIGN} has managed to do with the space. It's almost… homey.\""</t>
   </si>
   <si>
-    <t>"Позже на этой неделе Дариус сообщает обновленную информацию о ситуации.\n\nПеремещение [[TGT_MW, {TGT_MW.Callsign}]] рядом с местом для офицеров не только помогло {TGT_MW.OBJ} более тесно взаимодействовать с командой, но и дало счастливому мехвоину уединение, которого так жаждал {TGT_MW.SUBJ}.\n\n«Командир, я не знаю, были ли вы в гостях, но то, что {TGT_MW.CALLSIGN} удалось сделать с этим пространством, впечатляет. Это почти… по-домашнему»."</t>
+    <t>"Позже на этой неделе Дариус сообщает обновленную информацию о ситуации.\r\n\r\nПеремещение [[TGT_MW, {TGT_MW.Callsign}]] рядом с местом для офицеров не только помогло {TGT_MW.OBJ} более тесно взаимодействовать с командой, но и дало счастливому мехвоину уединение, которого так жаждал {TGT_MW.SUBJ}.\r\n\r\n«Командир, я не знаю, были ли вы в гостях, но то, что {TGT_MW.CALLSIGN} удалось сделать с этим пространством, впечатляет. Это почти… по-домашнему»."</t>
   </si>
   <si>
     <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Name</t>
@@ -183,7 +183,7 @@
     <t>"Pilot High morale for 30 days"</t>
   </si>
   <si>
-    <t>"Высокая мораль у пилота в течение 30 дней"</t>
+    <t>"У пилота высокий боевой дух на 30 дней"</t>
   </si>
   <si>
     <t>event_mw_goodDeeds_disgraced.outcome_1.Options1.Details</t>
@@ -348,7 +348,7 @@
     <t>"While browsing in the &lt;i&gt;Argo&lt;/i&gt;'s library, you find [[TGT_MW,{TGT_MW.Callsign}]] with a pile of printed materials, Holovid chips, and datapads.\r\n\r\n\"Commander, I'm… well, I'm a bit lost, actually. I have been here a while, and I'd like to make improvements on the battlefield.\" {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} at the pile.\r\n\r\n\"Maybe if I could do more than just pull the trigger on my LRM, I might get more kills. I, uh…\" {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. \"My folks depend on the money I send them, and I know I can do better and possibly get a raise if I become more efficient in battle. What do &lt;i&gt;you&lt;/i&gt; think I should study?\""</t>
   </si>
   <si>
-    <t>"Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW,{TGT_MW.Callsign}]] с кучей печатных материалов, головид-картами и датападами.\n\n\"Командир, я... в общем, я не знаю, что делать. Я здесь уже довольно давно... и хочу приносить больше пользы на поле боя\", - сказал мехвоин, указывая на стопку книг.\n\n\"Может быть, если бы можно было делать что-то большее, чем просто жать на гашетку, это бы пошло всем на пользу. То есть я, э-э...\",- заминаясь, пилот выпалил - \"Мои родные зависят от денег, что я им высылаю, а я знаю, что могу показать себя лучше и может быть - получить прибавку, если буду действовать более эффективно в бою. Что, по-вашему, мне нужно поизучать?\""</t>
+    <t>"Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW,{TGT_MW.Callsign}]] с кучей печатных материалов, головид-картами и датападами.\r\n\r\n\"Командир, я... в общем, я не знаю, что делать. Я здесь уже довольно давно... и хочу приносить больше пользы на поле боя\", - сказал мехвоин, указывая на стопку книг.\r\n\r\n\"Может быть, если бы можно было делать что-то большее, чем просто жать на гашетку, это бы пошло всем на пользу. То есть я, э-э...\",- заминаясь, пилот выпалил - \"Мои родные зависят от денег, что я им высылаю, а я знаю, что могу показать себя лучше и может быть - получить прибавку, если буду действовать более эффективно в бою. Что, по-вашему, мне нужно поизучать?\""</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.Description.Name</t>
@@ -357,7 +357,7 @@
     <t>"The Art of Assassination"</t>
   </si>
   <si>
-    <t>"Искусство убийства"</t>
+    <t>"Искусство убивать"</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.outcome_0.Options0.Details</t>
@@ -366,6 +366,9 @@
     <t>"[Argo: Improved Library]"</t>
   </si>
   <si>
+    <t>"[Арго: улучшенная библиотека]"</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.outcome_0.Options0.Name</t>
   </si>
   <si>
@@ -381,7 +384,7 @@
     <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible.\"\r\n\r\nYou do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} the passage aloud. \"Procrastination is opportunity's natural assassin..\"\r\n\r\nSlapping {TGT_MW.Callsign} on the back, \"You will need to forget some of your past experiences and concentrate on these new techniques. Even then there will probably be a need to make repeat visits to refresh your new skills. \""</t>
   </si>
   <si>
-    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее.»\n\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} читает отрывок вслух. \"Прокрастинация - естественный убийца возможностей..»\n\nПохлопав {TGT_MW.Callsign} по спине, \"Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки.\""</t>
+    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее.»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} читает отрывок вслух. \"Прокрастинация - естественный убийца возможностей..»\r\n\r\nПохлопав {TGT_MW.Callsign} по спине, \"Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки.\""</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.outcome_0_0.Options0.0.Name</t>
@@ -417,7 +420,7 @@
     <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books.\"\r\n\r\nTaking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience."</t>
   </si>
   <si>
-    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах.»\n\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
+    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах.»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.outcome_1_0.Options1.0.Name</t>
@@ -459,7 +462,7 @@
     <t>"\"On a combat drop, you're only as good as your weapons. When you're in the middle of a fight, you need to know the capabilities—and the limitations—of whatever 'Mech you're piloting.\"\r\n\r\nYou do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. \"Here, start with the tech behind Heat Sinks. Knowing how to push your 'Mech's limits will prove invaluable in every drop I send you on.\"\r\n\r\n[[TGT_MW,{TGT_MW.Callsign}]] furrows {TGT_MW.DET} brow and bends low over the detailed treatise, already engrossed in the material."</t>
   </si>
   <si>
-    <t>"«На боевой высадке ты хорош ровно настолько, насколько хорошо твоё оружие. Когда вы находитесь в середине боя, вам нужно знать возможности—и ограничения—любого меха, которым вы управляете.»\n\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»\n\n[[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом."</t>
+    <t>"«На боевой высадке ты хорош ровно настолько, насколько хорошо твоё оружие. Когда вы находитесь в середине боя, вам нужно знать возможности—и ограничения—любого меха, которым вы управляете.»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»\r\n\r\n[[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом."</t>
   </si>
   <si>
     <t>event_mw_libraryLostech.outcome_0_0.Options0.0.Name</t>
@@ -483,7 +486,7 @@
     <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books.\"\r\n\r\n\r\nTaking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience."</t>
   </si>
   <si>
-    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах.»\n\n\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
+    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах.»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
   </si>
   <si>
     <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Name</t>
@@ -828,15 +831,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="82" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,7 +1938,7 @@
         <v>114</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
@@ -1946,13 +1949,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
@@ -1963,13 +1966,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
@@ -1980,13 +1983,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
@@ -1997,13 +2000,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
@@ -2014,13 +2017,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
@@ -2031,13 +2034,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
@@ -2048,13 +2051,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
@@ -2065,7 +2068,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>108</v>
@@ -2082,13 +2085,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
@@ -2099,13 +2102,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
@@ -2116,13 +2119,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
@@ -2133,13 +2136,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
@@ -2150,13 +2153,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
@@ -2167,13 +2170,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
@@ -2184,13 +2187,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
@@ -2201,13 +2204,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D81" s="1">
         <v>81</v>
@@ -2218,13 +2221,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -27,9 +27,6 @@
     <t>"The crew is bubbling with enthusiasm about a local endurance competition.\r\n\r\nIn the morning briefing, Darius says, \"[[TGT_MW,{TGT_MW.Callsign}]] has requested permission to compete. Given the general interest, I'd like you to make the call.\"\r\n\r\nSumire says, \"Let {TGT_MW.Obj} go. It'll be entertaining.\""</t>
   </si>
   <si>
-    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\r\n\r\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»\r\n\r\nСумирэ говорит: «Отпусти {TGT_MW.Obj}. Это будет забавно.»"</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\r\n\r\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»\r\n\r\nСумир говорит: «Отпустите {TGT_MW.Gender?Female:её|Default:его}. Будет забавно.»"</t>
   </si>
 </sst>
 </file>
@@ -831,15 +831,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="82" style="1" customWidth="1"/>
-    <col min="4" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,1390 +850,1390 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="1">
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D21" s="1">
         <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D23" s="1">
         <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D26" s="1">
         <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="1">
         <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="1">
         <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D32" s="1">
         <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D33" s="1">
         <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D34" s="1">
         <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D37" s="1">
         <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D38" s="1">
         <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D39" s="1">
         <v>39</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D41" s="1">
         <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D42" s="1">
         <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D47" s="1">
         <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D48" s="1">
         <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D51" s="1">
         <v>51</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D52" s="1">
         <v>52</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D53" s="1">
         <v>53</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D54" s="1">
         <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D55" s="1">
         <v>55</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D56" s="1">
         <v>56</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D57" s="1">
         <v>57</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D59" s="1">
         <v>59</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D60" s="1">
         <v>60</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D61" s="1">
         <v>61</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D62" s="1">
         <v>62</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D63" s="1">
         <v>63</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D64" s="1">
         <v>64</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D73" s="1">
         <v>73</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D81" s="1">
         <v>81</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\Mods\Core\CustomLocalization\Localization\RogueTech\RU\Kas_events\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\BT Mod Files\ENOVA LOCALIZATION\Localization - копия\RogueTech\RU\Kas_events\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
   <si>
     <t>event_mw_endurance_race.Description.Details</t>
   </si>
@@ -27,469 +27,466 @@
     <t>"The crew is bubbling with enthusiasm about a local endurance competition.\r\n\r\nIn the morning briefing, Darius says, \"[[TGT_MW,{TGT_MW.Callsign}]] has requested permission to compete. Given the general interest, I'd like you to make the call.\"\r\n\r\nSumire says, \"Let {TGT_MW.Obj} go. It'll be entertaining.\""</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>event_mw_endurance_race.Description.Name</t>
   </si>
   <si>
     <t>"Endurance Race"</t>
   </si>
   <si>
+    <t>event_mw_endurance_race.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>"non-participation choice"</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Deny the shore leave requests."</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"Darius nods and the briefing continues to other topics.\r\n\r\nWhile some of the crew initially expresses discontent, the immediacy of the work at hand soon drowns out any thoughts of surface sports.\r\n\r\nExcept, that is, for [[TGT_MW,{TGT_MW.Callsign}]] who takes a few more days to shake off the thoughts of what might have been."</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>"lower morale"</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>"low cost option"</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>"Grant shore leave to {TGT_MW.Callsign}."</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You see {TGT_MW.Obj} in the mess hall, regaling listeners with tales of the race.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition!\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. \"I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>"earns an athletic tag"</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_1_1.Options1.1.Details</t>
+  </si>
+  <si>
+    <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You find {TGT_MW.Obj} in the mess hall, one arm in a cast, regaling listeners with tales of daring-do.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition, but I, uh, may have over-reached a little bit,\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, holding up the broken limb.\r\n\r\n\"Those locals, wow, they have endless stamina!. I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
+  </si>
+  <si>
+    <t>event_mw_endurance_race.outcome_1_1.Options1.1.Name</t>
+  </si>
+  <si>
+    <t>"earns the athletic tag and injury"</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.Description.Details</t>
+  </si>
+  <si>
+    <t>"Even before you arrive at the morning briefing, you can hear Dr. Murad praising [[TGT_MW,{TGT_MW.Callsign}]], saying how valuable their support has been to the engineering team.\r\n\r\nYang chimes in. \"Yeah, and then {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:} showed up in the Mech Bay. It only took a few minutes for {TGT_MW.Callsign} to figure out what was wrong with one of my winches.\"\r\n\r\nSumire smiles. \"Well, send {TGT_MW.Callsign} to the bridge, Chief. I could use the help!\"\r\n\r\nFinally, Darius notices you standing in the doorway and explains. \"Commander, we have to do something special for {TGT_MW.Callsign}. {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:'s} the most helpful member on the ship!\""</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.Description.Name</t>
+  </si>
+  <si>
+    <t>"Good Deeds"</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>"Privacy for a mechwarrior outside the cockpit is rare."</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Assign [[TGT_MW,{TGT_MW.Callsign}]] private VIP quarters in the &lt;i&gt;Argo&lt;i&gt;."</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"Later in the week, Darius delivers an update on the situation.\r\n\r\nRelocating [[TGT_MW,{TGT_MW.Callsign}]] near the officers area has not only kept {TGT_MW.OBJ} more involved with the crew, it's also given the lucky MechWarrior the solitude {TGT_MW.SUBJ} craved.\r\n\r\n\"Commander, I don't know if you've went to visit, but it's kind of impressive what {TGT_MW.CALLSIGN} has managed to do with the space. It's almost… homey.\""</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>"Pilot High morale for 30 days"</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>"Party!"</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>"Throw {TGT_MW.Callsign} a party in the Barracks!"</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>"High Company Morale!"</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_disgraced.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>"High Company Morale"</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.Description.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.Description.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_dishonest.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.Description.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.Description.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_jinxed.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.Description.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.Description.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_klutz.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.Description.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.Description.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_goodDeeds_unstable.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.Description.Details</t>
+  </si>
+  <si>
+    <t>"While browsing in the &lt;i&gt;Argo&lt;/i&gt;'s library, you find [[TGT_MW,{TGT_MW.Callsign}]] with a pile of printed materials, Holovid chips, and datapads.\r\n\r\n\"Commander, I'm… well, I'm a bit lost, actually. I have been here a while, and I'd like to make improvements on the battlefield.\" {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} at the pile.\r\n\r\n\"Maybe if I could do more than just pull the trigger on my LRM, I might get more kills. I, uh…\" {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. \"My folks depend on the money I send them, and I know I can do better and possibly get a raise if I become more efficient in battle. What do &lt;i&gt;you&lt;/i&gt; think I should study?\""</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.Description.Name</t>
+  </si>
+  <si>
+    <t>"The Art of Assassination"</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>"[Argo: Improved Library]"</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Give {TGT_MW.OBJ} the Art of Assassination to read."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible.\"\r\n\r\nYou do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} the passage aloud. \"Procrastination is opportunity's natural assassin..\"\r\n\r\nSlapping {TGT_MW.Callsign} on the back, \"You will need to forget some of your past experiences and concentrate on these new techniques. Even then there will probably be a need to make repeat visits to refresh your new skills. \""</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>"Assassin tag for 90 days, lose 3000 unspent xp"</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>"Experience option."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>"Send {TGT_MW.OBJ} to the simulators."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books.\"\r\n\r\nTaking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryAssassin.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>"Gain experience in simulator."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.Description.Details</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.Description.Name</t>
+  </si>
+  <si>
+    <t>"Lostech of the Innersphere"</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_0.Options0.Details</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_0.Options0.Name</t>
+  </si>
+  <si>
+    <t>"Direct {TGT_MW.OBJ} to study technical manuals."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_0_0.Options0.0.Details</t>
+  </si>
+  <si>
+    <t>"\"On a combat drop, you're only as good as your weapons. When you're in the middle of a fight, you need to know the capabilities—and the limitations—of whatever 'Mech you're piloting.\"\r\n\r\nYou do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. \"Here, start with the tech behind Heat Sinks. Knowing how to push your 'Mech's limits will prove invaluable in every drop I send you on.\"\r\n\r\n[[TGT_MW,{TGT_MW.Callsign}]] furrows {TGT_MW.DET} brow and bends low over the detailed treatise, already engrossed in the material."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_0_0.Options0.0.Name</t>
+  </si>
+  <si>
+    <t>"Gets Lostech tag"</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_1.Options1.Details</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_1.Options1.Name</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Details</t>
+  </si>
+  <si>
+    <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books.\"\r\n\r\n\r\nTaking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience."</t>
+  </si>
+  <si>
+    <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Name</t>
+  </si>
+  <si>
+    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\r\n\r\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»\r\n\r\nСумир говорит: «Отпустите {TGT_MW.Gender?Female:её|Default:его}. Будет забавно.»"</t>
+  </si>
+  <si>
     <t>"Гонка на выносливость"</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>"non-participation choice"</t>
-  </si>
-  <si>
     <t>"выбор не участия"</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"Deny the shore leave requests."</t>
-  </si>
-  <si>
     <t>"Отклонить просьбы покинуть борт."</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Darius nods and the briefing continues to other topics.\r\n\r\nWhile some of the crew initially expresses discontent, the immediacy of the work at hand soon drowns out any thoughts of surface sports.\r\n\r\nExcept, that is, for [[TGT_MW,{TGT_MW.Callsign}]] who takes a few more days to shake off the thoughts of what might have been."</t>
-  </si>
-  <si>
     <t>"Дариус кивает, и брифинг переходит к другим темам.\r\n\r\nХотя часть экипажа изначально выражает недовольство, непосредственность предстоящей работы вскоре заглушает любые мысли о наземных видах спорта.\r\n\r\nЗа исключением, конечно, [[TGT_MW,{TGT_MW.Callsign}]], которому требуется еще несколько дней, чтобы избавиться от мыслей о том, что могло бы быть."</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>"lower morale"</t>
-  </si>
-  <si>
     <t>"снижает моральный дух"</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>"low cost option"</t>
-  </si>
-  <si>
     <t>"вариант с низкой стоимостью"</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>"Grant shore leave to {TGT_MW.Callsign}."</t>
-  </si>
-  <si>
     <t>"Предоставить увольнительную {TGT_MW.Callsign}."</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You see {TGT_MW.Obj} in the mess hall, regaling listeners with tales of the race.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition!\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. \"I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
-  </si>
-  <si>
     <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите воина в столовой, кормящего слушателей рассказами о гонке.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот с энтузиазмом. «Без победы, но здорово было поучаствовать. Эти местные жители,- вау! У них бесконечная выносливость! Мы держались на равных какое-то время, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. 24 часа в перегревающейся кабине меха было бы и то менее утомительно»."</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>"earns an athletic tag"</t>
-  </si>
-  <si>
     <t>"получает особенность «Спортивный»"</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_1_1.Options1.1.Details</t>
-  </si>
-  <si>
-    <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You find {TGT_MW.Obj} in the mess hall, one arm in a cast, regaling listeners with tales of daring-do.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition, but I, uh, may have over-reached a little bit,\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, holding up the broken limb.\r\n\r\n\"Those locals, wow, they have endless stamina!. I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
-  </si>
-  <si>
     <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на неделе. Вы находите воина в столовой, с рукой в гипсе, угощающего слушателей рассказами о своих приключениях.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - говорит горе-бегун, поддерживая сломанную руку.\r\n\r\n«Эти местные жители,- ух! - у них просто бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. Провести 24 часа в перегревающейся кабине меха и то менее утомительно»."</t>
   </si>
   <si>
-    <t>event_mw_endurance_race.outcome_1_1.Options1.1.Name</t>
-  </si>
-  <si>
-    <t>"earns the athletic tag and injury"</t>
-  </si>
-  <si>
     <t>"получает «Спортивный» и травму"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.Description.Details</t>
-  </si>
-  <si>
-    <t>"Even before you arrive at the morning briefing, you can hear Dr. Murad praising [[TGT_MW,{TGT_MW.Callsign}]], saying how valuable their support has been to the engineering team.\r\n\r\nYang chimes in. \"Yeah, and then {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:} showed up in the Mech Bay. It only took a few minutes for {TGT_MW.Callsign} to figure out what was wrong with one of my winches.\"\r\n\r\nSumire smiles. \"Well, send {TGT_MW.Callsign} to the bridge, Chief. I could use the help!\"\r\n\r\nFinally, Darius notices you standing in the doorway and explains. \"Commander, we have to do something special for {TGT_MW.Callsign}. {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:'s} the most helpful member on the ship!\""</t>
-  </si>
-  <si>
     <t>"Ещё перед прибытием на утренний брифинг, вы слышите, как доктор Мурад хвалит [[TGT_MW, {TGT_MW.Callsign}]], говоря, насколько ценна была {TGT_MW.Gender?Female:её|Default:его} поддержка для команды инженеров.\r\n\r\nТут вмешивается Ян: «Да, а когда {TGT_MW.Subj_C} {TGT_MW.Gender?Female:появилась|Default:появился} в мехотсеке, {TGT_MW.Gender?Female:ей|Default:ему} потребовалось всего пара минут, чтобы выяснить, что случилось с одной из моих лебедок.»\r\n\r\nСумир, улыбаясь: «Что ж, шеф, пришлите, пожалуйста, {TGT_MW.Callsign} и к нам на мостик. Мне бы не помешала помощь!»\r\n\r\nНаконец, Дариус замечает, что вы стоите в дверном проеме, и поясняет: «Командир, надо устроить что-то особенное для {TGT_MW.Callsign}. {TGT_MW.Gender?Female:Она|Default:Он} - самый полезный человек на корабле!»"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.Description.Name</t>
-  </si>
-  <si>
-    <t>"Good Deeds"</t>
-  </si>
-  <si>
     <t>"Добрые дела"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>"Privacy for a mechwarrior outside the cockpit is rare."</t>
-  </si>
-  <si>
     <t>"Уединение для мехвоина вне кабины-редкость."</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"Assign [[TGT_MW,{TGT_MW.Callsign}]] private VIP quarters in the &lt;i&gt;Argo&lt;i&gt;."</t>
-  </si>
-  <si>
     <t>"Предоставьте [[TGT_MW, {TGT_MW.Callsign}]] VIP-каюту в &lt;i&gt;Арго&lt;/i&gt;."</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"Later in the week, Darius delivers an update on the situation.\r\n\r\nRelocating [[TGT_MW,{TGT_MW.Callsign}]] near the officers area has not only kept {TGT_MW.OBJ} more involved with the crew, it's also given the lucky MechWarrior the solitude {TGT_MW.SUBJ} craved.\r\n\r\n\"Commander, I don't know if you've went to visit, but it's kind of impressive what {TGT_MW.CALLSIGN} has managed to do with the space. It's almost… homey.\""</t>
-  </si>
-  <si>
     <t>"Позже на этой неделе Дариус сообщает обновленную информацию о ситуации.\r\n\r\nПеремещение [[TGT_MW, {TGT_MW.Callsign}]] рядом с местом для офицеров не только помогло {TGT_MW.OBJ} более тесно взаимодействовать с командой, но и дало счастливому мехвоину уединение, которого так жаждал {TGT_MW.SUBJ}.\r\n\r\n«Командир, я не знаю, были ли вы в гостях, но то, что {TGT_MW.CALLSIGN} удалось сделать с этим пространством, впечатляет. Это почти… по-домашнему»."</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>"Pilot High morale for 30 days"</t>
-  </si>
-  <si>
     <t>"У пилота высокий боевой дух на 30 дней"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>"Party!"</t>
-  </si>
-  <si>
     <t>"Вечеринка!"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>"Throw {TGT_MW.Callsign} a party in the Barracks!"</t>
-  </si>
-  <si>
     <t>"Закатите {TGT_MW.Callsign} вечеринку в казарме!"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>"High Company Morale!"</t>
-  </si>
-  <si>
     <t>"Высокий боевой дух компании!"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_disgraced.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>"High Company Morale"</t>
-  </si>
-  <si>
     <t>"Высокий боевой дух компании"</t>
   </si>
   <si>
-    <t>event_mw_goodDeeds_dishonest.Description.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.Description.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_dishonest.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.Description.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.Description.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_jinxed.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.Description.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.Description.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_klutz.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.Description.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.Description.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_goodDeeds_unstable.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>event_mw_libraryAssassin.Description.Details</t>
-  </si>
-  <si>
-    <t>"While browsing in the &lt;i&gt;Argo&lt;/i&gt;'s library, you find [[TGT_MW,{TGT_MW.Callsign}]] with a pile of printed materials, Holovid chips, and datapads.\r\n\r\n\"Commander, I'm… well, I'm a bit lost, actually. I have been here a while, and I'd like to make improvements on the battlefield.\" {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} at the pile.\r\n\r\n\"Maybe if I could do more than just pull the trigger on my LRM, I might get more kills. I, uh…\" {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. \"My folks depend on the money I send them, and I know I can do better and possibly get a raise if I become more efficient in battle. What do &lt;i&gt;you&lt;/i&gt; think I should study?\""</t>
-  </si>
-  <si>
     <t>"Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW,{TGT_MW.Callsign}]] с кучей печатных материалов, головид-картами и датападами.\r\n\r\n\"Командир, я... в общем, я не знаю, что делать. Я здесь уже довольно давно... и хочу приносить больше пользы на поле боя\", - сказал мехвоин, указывая на стопку книг.\r\n\r\n\"Может быть, если бы можно было делать что-то большее, чем просто жать на гашетку, это бы пошло всем на пользу. То есть я, э-э...\",- заминаясь, пилот выпалил - \"Мои родные зависят от денег, что я им высылаю, а я знаю, что могу показать себя лучше и может быть - получить прибавку, если буду действовать более эффективно в бою. Что, по-вашему, мне нужно поизучать?\""</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.Description.Name</t>
-  </si>
-  <si>
-    <t>"The Art of Assassination"</t>
-  </si>
-  <si>
     <t>"Искусство убивать"</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>"[Argo: Improved Library]"</t>
-  </si>
-  <si>
     <t>"[Арго: улучшенная библиотека]"</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"Give {TGT_MW.OBJ} the Art of Assassination to read."</t>
-  </si>
-  <si>
     <t>"Дайте {TGT_MW.OBJ} прочитать «Искусство убийства»."</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible.\"\r\n\r\nYou do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} the passage aloud. \"Procrastination is opportunity's natural assassin..\"\r\n\r\nSlapping {TGT_MW.Callsign} on the back, \"You will need to forget some of your past experiences and concentrate on these new techniques. Even then there will probably be a need to make repeat visits to refresh your new skills. \""</t>
-  </si>
-  <si>
     <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее.»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} читает отрывок вслух. \"Прокрастинация - естественный убийца возможностей..»\r\n\r\nПохлопав {TGT_MW.Callsign} по спине, \"Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки.\""</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>"Assassin tag for 90 days, lose 3000 unspent xp"</t>
-  </si>
-  <si>
     <t>"Получена метка Убийцы на 90 дней, потеряйте 3000 неизрасходованного опыта."</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>"Experience option."</t>
-  </si>
-  <si>
-    <t>"Опытный вариант."</t>
-  </si>
-  <si>
-    <t>event_mw_libraryAssassin.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>"Send {TGT_MW.OBJ} to the simulators."</t>
+    <t>"Вариант с опытом."</t>
   </si>
   <si>
     <t>"Отправить {TGT_MW.OBJ} в симуляторы."</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books.\"\r\n\r\nTaking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience."</t>
-  </si>
-  <si>
     <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах.»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
   </si>
   <si>
-    <t>event_mw_libraryAssassin.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>"Gain experience in simulator."</t>
-  </si>
-  <si>
     <t>"Наберитесь опыта в симуляторе."</t>
   </si>
   <si>
-    <t>event_mw_libraryLostech.Description.Details</t>
-  </si>
-  <si>
-    <t>event_mw_libraryLostech.Description.Name</t>
-  </si>
-  <si>
-    <t>"Lostech of the Innersphere"</t>
-  </si>
-  <si>
-    <t>"ЛосТех Внутренней сферы"</t>
-  </si>
-  <si>
-    <t>event_mw_libraryLostech.outcome_0.Options0.Details</t>
-  </si>
-  <si>
-    <t>event_mw_libraryLostech.outcome_0.Options0.Name</t>
-  </si>
-  <si>
-    <t>"Direct {TGT_MW.OBJ} to study technical manuals."</t>
+    <t>"Лостех Внутренней сферы"</t>
   </si>
   <si>
     <t>"Поручить {TGT_MW.OBJ} изучить технические руководства."</t>
   </si>
   <si>
-    <t>event_mw_libraryLostech.outcome_0_0.Options0.0.Details</t>
-  </si>
-  <si>
-    <t>"\"On a combat drop, you're only as good as your weapons. When you're in the middle of a fight, you need to know the capabilities—and the limitations—of whatever 'Mech you're piloting.\"\r\n\r\nYou do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. \"Here, start with the tech behind Heat Sinks. Knowing how to push your 'Mech's limits will prove invaluable in every drop I send you on.\"\r\n\r\n[[TGT_MW,{TGT_MW.Callsign}]] furrows {TGT_MW.DET} brow and bends low over the detailed treatise, already engrossed in the material."</t>
-  </si>
-  <si>
     <t>"«На боевой высадке ты хорош ровно настолько, насколько хорошо твоё оружие. Когда вы находитесь в середине боя, вам нужно знать возможности—и ограничения—любого меха, которым вы управляете.»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»\r\n\r\n[[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом."</t>
   </si>
   <si>
-    <t>event_mw_libraryLostech.outcome_0_0.Options0.0.Name</t>
-  </si>
-  <si>
-    <t>"Gets Lostech tag"</t>
-  </si>
-  <si>
-    <t>"Получите черту Лостех"</t>
-  </si>
-  <si>
-    <t>event_mw_libraryLostech.outcome_1.Options1.Details</t>
-  </si>
-  <si>
-    <t>event_mw_libraryLostech.outcome_1.Options1.Name</t>
-  </si>
-  <si>
-    <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Details</t>
-  </si>
-  <si>
-    <t>"\"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books.\"\r\n\r\n\r\nTaking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience."</t>
+    <t>"Получает черту Лостех"</t>
   </si>
   <si>
     <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах.»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
-  </si>
-  <si>
-    <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Name</t>
-  </si>
-  <si>
-    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\r\n\r\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»\r\n\r\nСумир говорит: «Отпустите {TGT_MW.Gender?Female:её|Default:его}. Будет забавно.»"</t>
   </si>
 </sst>
 </file>
@@ -829,20 +826,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="82" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,1390 +847,1144 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1">
         <v>17</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1">
         <v>23</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D26" s="1">
         <v>26</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1">
         <v>27</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1">
         <v>28</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1">
         <v>31</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1">
         <v>32</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1">
         <v>33</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1">
         <v>34</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D36" s="1">
         <v>36</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D37" s="1">
         <v>37</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D38" s="1">
         <v>38</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D39" s="1">
         <v>39</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1">
         <v>41</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D42" s="1">
         <v>42</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D43" s="1">
         <v>43</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1">
         <v>47</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1">
         <v>48</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1">
         <v>51</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1">
         <v>52</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D53" s="1">
         <v>53</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1">
         <v>54</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1">
         <v>55</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D56" s="1">
         <v>56</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D57" s="1">
         <v>57</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D59" s="1">
         <v>59</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D60" s="1">
         <v>60</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D61" s="1">
         <v>61</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D62" s="1">
         <v>62</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D63" s="1">
         <v>63</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1">
         <v>64</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D73" s="1">
         <v>73</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D81" s="1">
         <v>81</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\BT Mod Files\ENOVA LOCALIZATION\Localization - копия\RogueTech\RU\Kas_events\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SteamLibrary\steamapps\common\BATTLETECH\Mods\Core\CustomLocalization\Localization\RogueTech\RU\Kas_events\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,66 +33,99 @@
     <t>"Endurance Race"</t>
   </si>
   <si>
+    <t>"Гонка на выносливость"</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_0.Options0.Details</t>
   </si>
   <si>
     <t>"non-participation choice"</t>
   </si>
   <si>
+    <t>"выбор не участия"</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_0.Options0.Name</t>
   </si>
   <si>
     <t>"Deny the shore leave requests."</t>
   </si>
   <si>
+    <t>"Отклонить просьбы покинуть борт."</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"Darius nods and the briefing continues to other topics.\r\n\r\nWhile some of the crew initially expresses discontent, the immediacy of the work at hand soon drowns out any thoughts of surface sports.\r\n\r\nExcept, that is, for [[TGT_MW,{TGT_MW.Callsign}]] who takes a few more days to shake off the thoughts of what might have been."</t>
   </si>
   <si>
+    <t>"Дариус кивает, и брифинг переходит к другим темам.\r\n\r\nХотя часть экипажа изначально выражает недовольство, непосредственность предстоящей работы вскоре заглушает любые мысли о наземных видах спорта.\r\n\r\nЗа исключением, конечно, [[TGT_MW,{TGT_MW.Callsign}]], которому требуется еще несколько дней, чтобы избавиться от мыслей о том, что могло бы быть."</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>"lower morale"</t>
   </si>
   <si>
+    <t>"снижает моральный дух"</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_1.Options1.Details</t>
   </si>
   <si>
     <t>"low cost option"</t>
   </si>
   <si>
+    <t>"вариант с низкой стоимостью"</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_1.Options1.Name</t>
   </si>
   <si>
     <t>"Grant shore leave to {TGT_MW.Callsign}."</t>
   </si>
   <si>
+    <t>"Предоставить увольнительную {TGT_MW.Callsign}."</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_1_0.Options1.0.Details</t>
   </si>
   <si>
     <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You see {TGT_MW.Obj} in the mess hall, regaling listeners with tales of the race.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition!\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. \"I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
   </si>
   <si>
+    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите воина в столовой, кормящего слушателей рассказами о гонке.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот с энтузиазмом. «Без победы, но здорово было поучаствовать. Эти местные жители,- вау! У них бесконечная выносливость! Мы держались на равных какое-то время, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. 24 часа в перегревающейся кабине меха было бы и то менее утомительно»."</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_1_0.Options1.0.Name</t>
   </si>
   <si>
     <t>"earns an athletic tag"</t>
   </si>
   <si>
+    <t>"получает особенность «Спортивный»"</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_1_1.Options1.1.Details</t>
   </si>
   <si>
     <t>"[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You find {TGT_MW.Obj} in the mess hall, one arm in a cast, regaling listeners with tales of daring-do.\r\n\r\n\"Commander, thanks for letting me participate in the endurance competition, but I, uh, may have over-reached a little bit,\" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, holding up the broken limb.\r\n\r\n\"Those locals, wow, they have endless stamina!. I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting.\""</t>
   </si>
   <si>
+    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на неделе. Вы находите воина в столовой, с рукой в гипсе, угощающего слушателей рассказами о своих приключениях.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - говорит горе-бегун, поддерживая сломанную руку.\r\n\r\n«Эти местные жители,- ух! - у них просто бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. Провести 24 часа в перегревающейся кабине меха и то менее утомительно»."</t>
+  </si>
+  <si>
     <t>event_mw_endurance_race.outcome_1_1.Options1.1.Name</t>
   </si>
   <si>
     <t>"earns the athletic tag and injury"</t>
   </si>
   <si>
+    <t>"получает «Спортивный» и травму"</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.Description.Details</t>
   </si>
   <si>
@@ -105,54 +138,81 @@
     <t>"Good Deeds"</t>
   </si>
   <si>
+    <t>"Добрые дела"</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_0.Options0.Details</t>
   </si>
   <si>
     <t>"Privacy for a mechwarrior outside the cockpit is rare."</t>
   </si>
   <si>
+    <t>"Уединение для мехвоина вне кабины-редкость."</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_0.Options0.Name</t>
   </si>
   <si>
     <t>"Assign [[TGT_MW,{TGT_MW.Callsign}]] private VIP quarters in the &lt;i&gt;Argo&lt;i&gt;."</t>
   </si>
   <si>
+    <t>"Предоставьте [[TGT_MW, {TGT_MW.Callsign}]] VIP-каюту в &lt;i&gt;Арго&lt;/i&gt;."</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
     <t>"Later in the week, Darius delivers an update on the situation.\r\n\r\nRelocating [[TGT_MW,{TGT_MW.Callsign}]] near the officers area has not only kept {TGT_MW.OBJ} more involved with the crew, it's also given the lucky MechWarrior the solitude {TGT_MW.SUBJ} craved.\r\n\r\n\"Commander, I don't know if you've went to visit, but it's kind of impressive what {TGT_MW.CALLSIGN} has managed to do with the space. It's almost… homey.\""</t>
   </si>
   <si>
+    <t>"Позже на этой неделе Дариус сообщает обновленную информацию о ситуации.\r\n\r\nПеремещение [[TGT_MW, {TGT_MW.Callsign}]] рядом с местом для офицеров не только помогло {TGT_MW.OBJ} более тесно взаимодействовать с командой, но и дало счастливому мехвоину уединение, которого так жаждал {TGT_MW.SUBJ}.\r\n\r\n«Командир, я не знаю, были ли вы в гостях, но то, что {TGT_MW.CALLSIGN} удалось сделать с этим пространством, впечатляет. Это почти… по-домашнему»."</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Name</t>
   </si>
   <si>
     <t>"Pilot High morale for 30 days"</t>
   </si>
   <si>
+    <t>"У пилота высокий боевой дух на 30 дней"</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_1.Options1.Details</t>
   </si>
   <si>
     <t>"Party!"</t>
   </si>
   <si>
+    <t>"Вечеринка!"</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_1.Options1.Name</t>
   </si>
   <si>
     <t>"Throw {TGT_MW.Callsign} a party in the Barracks!"</t>
   </si>
   <si>
+    <t>"Закатите {TGT_MW.Callsign} вечеринку в казарме!"</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_1_0.Options1.0.Details</t>
   </si>
   <si>
     <t>"High Company Morale!"</t>
   </si>
   <si>
+    <t>"Высокий боевой дух компании!"</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_disgraced.outcome_1_0.Options1.0.Name</t>
   </si>
   <si>
     <t>"High Company Morale"</t>
   </si>
   <si>
+    <t>"Высокий боевой дух компании"</t>
+  </si>
+  <si>
     <t>event_mw_goodDeeds_dishonest.Description.Details</t>
   </si>
   <si>
@@ -279,24 +339,36 @@
     <t>"While browsing in the &lt;i&gt;Argo&lt;/i&gt;'s library, you find [[TGT_MW,{TGT_MW.Callsign}]] with a pile of printed materials, Holovid chips, and datapads.\r\n\r\n\"Commander, I'm… well, I'm a bit lost, actually. I have been here a while, and I'd like to make improvements on the battlefield.\" {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} at the pile.\r\n\r\n\"Maybe if I could do more than just pull the trigger on my LRM, I might get more kills. I, uh…\" {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. \"My folks depend on the money I send them, and I know I can do better and possibly get a raise if I become more efficient in battle. What do &lt;i&gt;you&lt;/i&gt; think I should study?\""</t>
   </si>
   <si>
+    <t>"Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW,{TGT_MW.Callsign}]] с кучей печатных материалов, головид-картами и датападами.\r\n\r\n\"Командир, я... в общем, я не знаю, что делать. Я здесь уже довольно давно... и хочу приносить больше пользы на поле боя\", - сказал мехвоин, указывая на стопку книг.\r\n\r\n\"Может быть, если бы можно было делать что-то большее, чем просто жать на гашетку, это бы пошло всем на пользу. То есть я, э-э...\",- заминаясь, пилот выпалил - \"Мои родные зависят от денег, что я им высылаю, а я знаю, что могу показать себя лучше и может быть - получить прибавку, если буду действовать более эффективно в бою. Что, по-вашему, мне нужно поизучать?\""</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.Description.Name</t>
   </si>
   <si>
     <t>"The Art of Assassination"</t>
   </si>
   <si>
+    <t>"Искусство убивать"</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.outcome_0.Options0.Details</t>
   </si>
   <si>
     <t>"[Argo: Improved Library]"</t>
   </si>
   <si>
+    <t>"[Арго: улучшенная библиотека]"</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.outcome_0.Options0.Name</t>
   </si>
   <si>
     <t>"Give {TGT_MW.OBJ} the Art of Assassination to read."</t>
   </si>
   <si>
+    <t>"Дайте {TGT_MW.OBJ} прочитать «Искусство убийства»."</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
@@ -309,18 +381,27 @@
     <t>"Assassin tag for 90 days, lose 3000 unspent xp"</t>
   </si>
   <si>
+    <t>"Получена метка Убийцы на 90 дней, потеряйте 3000 неизрасходованного опыта."</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.outcome_1.Options1.Details</t>
   </si>
   <si>
     <t>"Experience option."</t>
   </si>
   <si>
+    <t>"Вариант с опытом."</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.outcome_1.Options1.Name</t>
   </si>
   <si>
     <t>"Send {TGT_MW.OBJ} to the simulators."</t>
   </si>
   <si>
+    <t>"Отправить {TGT_MW.OBJ} в симуляторы."</t>
+  </si>
+  <si>
     <t>event_mw_libraryAssassin.outcome_1_0.Options1.0.Details</t>
   </si>
   <si>
@@ -333,6 +414,9 @@
     <t>"Gain experience in simulator."</t>
   </si>
   <si>
+    <t>"Наберитесь опыта в симуляторе."</t>
+  </si>
+  <si>
     <t>event_mw_libraryLostech.Description.Details</t>
   </si>
   <si>
@@ -342,6 +426,9 @@
     <t>"Lostech of the Innersphere"</t>
   </si>
   <si>
+    <t>"Лостех Внутренней сферы"</t>
+  </si>
+  <si>
     <t>event_mw_libraryLostech.outcome_0.Options0.Details</t>
   </si>
   <si>
@@ -351,6 +438,9 @@
     <t>"Direct {TGT_MW.OBJ} to study technical manuals."</t>
   </si>
   <si>
+    <t>"Поручить {TGT_MW.OBJ} изучить технические руководства."</t>
+  </si>
+  <si>
     <t>event_mw_libraryLostech.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
@@ -363,6 +453,9 @@
     <t>"Gets Lostech tag"</t>
   </si>
   <si>
+    <t>"Получает черту Лостех"</t>
+  </si>
+  <si>
     <t>event_mw_libraryLostech.outcome_1.Options1.Details</t>
   </si>
   <si>
@@ -378,115 +471,22 @@
     <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Name</t>
   </si>
   <si>
-    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\r\n\r\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»\r\n\r\nСумир говорит: «Отпустите {TGT_MW.Gender?Female:её|Default:его}. Будет забавно.»"</t>
-  </si>
-  <si>
-    <t>"Гонка на выносливость"</t>
-  </si>
-  <si>
-    <t>"выбор не участия"</t>
-  </si>
-  <si>
-    <t>"Отклонить просьбы покинуть борт."</t>
-  </si>
-  <si>
-    <t>"Дариус кивает, и брифинг переходит к другим темам.\r\n\r\nХотя часть экипажа изначально выражает недовольство, непосредственность предстоящей работы вскоре заглушает любые мысли о наземных видах спорта.\r\n\r\nЗа исключением, конечно, [[TGT_MW,{TGT_MW.Callsign}]], которому требуется еще несколько дней, чтобы избавиться от мыслей о том, что могло бы быть."</t>
-  </si>
-  <si>
-    <t>"снижает моральный дух"</t>
-  </si>
-  <si>
-    <t>"вариант с низкой стоимостью"</t>
-  </si>
-  <si>
-    <t>"Предоставить увольнительную {TGT_MW.Callsign}."</t>
-  </si>
-  <si>
-    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите воина в столовой, кормящего слушателей рассказами о гонке.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот с энтузиазмом. «Без победы, но здорово было поучаствовать. Эти местные жители,- вау! У них бесконечная выносливость! Мы держались на равных какое-то время, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. 24 часа в перегревающейся кабине меха было бы и то менее утомительно»."</t>
-  </si>
-  <si>
-    <t>"получает особенность «Спортивный»"</t>
-  </si>
-  <si>
-    <t>"[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на неделе. Вы находите воина в столовой, с рукой в гипсе, угощающего слушателей рассказами о своих приключениях.\r\n\r\n«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - говорит горе-бегун, поддерживая сломанную руку.\r\n\r\n«Эти местные жители,- ух! - у них просто бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но потом я всё, {TGT_MW.Gender?Female:выдохлась|Default:выдохся}. Провести 24 часа в перегревающейся кабине меха и то менее утомительно»."</t>
-  </si>
-  <si>
-    <t>"получает «Спортивный» и травму"</t>
-  </si>
-  <si>
-    <t>"Ещё перед прибытием на утренний брифинг, вы слышите, как доктор Мурад хвалит [[TGT_MW, {TGT_MW.Callsign}]], говоря, насколько ценна была {TGT_MW.Gender?Female:её|Default:его} поддержка для команды инженеров.\r\n\r\nТут вмешивается Ян: «Да, а когда {TGT_MW.Subj_C} {TGT_MW.Gender?Female:появилась|Default:появился} в мехотсеке, {TGT_MW.Gender?Female:ей|Default:ему} потребовалось всего пара минут, чтобы выяснить, что случилось с одной из моих лебедок.»\r\n\r\nСумир, улыбаясь: «Что ж, шеф, пришлите, пожалуйста, {TGT_MW.Callsign} и к нам на мостик. Мне бы не помешала помощь!»\r\n\r\nНаконец, Дариус замечает, что вы стоите в дверном проеме, и поясняет: «Командир, надо устроить что-то особенное для {TGT_MW.Callsign}. {TGT_MW.Gender?Female:Она|Default:Он} - самый полезный человек на корабле!»"</t>
-  </si>
-  <si>
-    <t>"Добрые дела"</t>
-  </si>
-  <si>
-    <t>"Уединение для мехвоина вне кабины-редкость."</t>
-  </si>
-  <si>
-    <t>"Предоставьте [[TGT_MW, {TGT_MW.Callsign}]] VIP-каюту в &lt;i&gt;Арго&lt;/i&gt;."</t>
-  </si>
-  <si>
-    <t>"Позже на этой неделе Дариус сообщает обновленную информацию о ситуации.\r\n\r\nПеремещение [[TGT_MW, {TGT_MW.Callsign}]] рядом с местом для офицеров не только помогло {TGT_MW.OBJ} более тесно взаимодействовать с командой, но и дало счастливому мехвоину уединение, которого так жаждал {TGT_MW.SUBJ}.\r\n\r\n«Командир, я не знаю, были ли вы в гостях, но то, что {TGT_MW.CALLSIGN} удалось сделать с этим пространством, впечатляет. Это почти… по-домашнему»."</t>
-  </si>
-  <si>
-    <t>"У пилота высокий боевой дух на 30 дней"</t>
-  </si>
-  <si>
-    <t>"Вечеринка!"</t>
-  </si>
-  <si>
-    <t>"Закатите {TGT_MW.Callsign} вечеринку в казарме!"</t>
-  </si>
-  <si>
-    <t>"Высокий боевой дух компании!"</t>
-  </si>
-  <si>
-    <t>"Высокий боевой дух компании"</t>
-  </si>
-  <si>
-    <t>"Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW,{TGT_MW.Callsign}]] с кучей печатных материалов, головид-картами и датападами.\r\n\r\n\"Командир, я... в общем, я не знаю, что делать. Я здесь уже довольно давно... и хочу приносить больше пользы на поле боя\", - сказал мехвоин, указывая на стопку книг.\r\n\r\n\"Может быть, если бы можно было делать что-то большее, чем просто жать на гашетку, это бы пошло всем на пользу. То есть я, э-э...\",- заминаясь, пилот выпалил - \"Мои родные зависят от денег, что я им высылаю, а я знаю, что могу показать себя лучше и может быть - получить прибавку, если буду действовать более эффективно в бою. Что, по-вашему, мне нужно поизучать?\""</t>
-  </si>
-  <si>
-    <t>"Искусство убивать"</t>
-  </si>
-  <si>
-    <t>"[Арго: улучшенная библиотека]"</t>
-  </si>
-  <si>
-    <t>"Дайте {TGT_MW.OBJ} прочитать «Искусство убийства»."</t>
-  </si>
-  <si>
-    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее.»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} читает отрывок вслух. \"Прокрастинация - естественный убийца возможностей..»\r\n\r\nПохлопав {TGT_MW.Callsign} по спине, \"Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки.\""</t>
-  </si>
-  <si>
-    <t>"Получена метка Убийцы на 90 дней, потеряйте 3000 неизрасходованного опыта."</t>
-  </si>
-  <si>
-    <t>"Вариант с опытом."</t>
-  </si>
-  <si>
-    <t>"Отправить {TGT_MW.OBJ} в симуляторы."</t>
-  </si>
-  <si>
-    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах.»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
-  </si>
-  <si>
-    <t>"Наберитесь опыта в симуляторе."</t>
-  </si>
-  <si>
-    <t>"Лостех Внутренней сферы"</t>
-  </si>
-  <si>
-    <t>"Поручить {TGT_MW.OBJ} изучить технические руководства."</t>
-  </si>
-  <si>
-    <t>"«На боевой высадке ты хорош ровно настолько, насколько хорошо твоё оружие. Когда вы находитесь в середине боя, вам нужно знать возможности—и ограничения—любого меха, которым вы управляете.»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»\r\n\r\n[[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом."</t>
-  </si>
-  <si>
-    <t>"Получает черту Лостех"</t>
-  </si>
-  <si>
-    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах.»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
+    <t>"Экипаж полон энтузиазма по поводу местных соревнований на выносливость.\r\n\r\nНа утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение»\r\n\r\nСумир говорит: «Отпустите {TGT_MW.Gender?Female:её|Default:его}. Будет забавно.»"</t>
+  </si>
+  <si>
+    <t>"Ещё перед прибытием на утренний брифинг, вы слышите, как доктор Мурад хвалит [[TGT_MW, {TGT_MW.Callsign}]], говоря, насколько ценна была {TGT_MW.Gender?Female:её|Default:его} поддержка для команды инженеров.\r\n\r\nТут вмешивается Ян: «Да, а когда {TGT_MW.Subj_C} {TGT_MW.Gender?Female:появилась|Default:появился} в мехотсеке, {TGT_MW.Gender?Female:ей|Default:ему} потребовалось всего пара минут, чтобы выяснить, что случилось с одной из моих лебедок»\r\n\r\nСумир, улыбаясь: «Что ж, шеф, пришлите, пожалуйста, {TGT_MW.Callsign} и к нам на мостик. Мне бы не помешала помощь!»\r\n\r\nНаконец, Дариус замечает, что вы стоите в дверном проеме, и поясняет: «Командир, надо устроить что-то особенное для {TGT_MW.Callsign}. {TGT_MW.Gender?Female:Она|Default:Он} - самый полезный человек на корабле!»"</t>
+  </si>
+  <si>
+    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} читает отрывок вслух. \"Прокрастинация - естественный убийца возможностей.»\r\n\r\nПохлопав {TGT_MW.Callsign} по спине, \"Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки.\""</t>
+  </si>
+  <si>
+    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
+  </si>
+  <si>
+    <t>"«На боевой высадке ты хорош ровно настолько, насколько хорошо твоё оружие. Когда вы находитесь в середине боя, вам нужно знать возможности—и ограничения—любого меха, которым вы управляете»\r\n\r\nВы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя»\r\n\r\n[[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом."</t>
+  </si>
+  <si>
+    <t>"«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах»\r\n\r\nСледуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта."</t>
   </si>
 </sst>
 </file>
@@ -829,14 +829,14 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="82" style="1" customWidth="1"/>
-    <col min="4" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -869,13 +869,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -883,13 +883,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -911,13 +911,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -939,13 +939,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -953,13 +953,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>9</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -981,13 +981,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>11</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>14</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
@@ -1065,13 +1065,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1">
         <v>17</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1">
         <v>21</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D23" s="1">
         <v>23</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -1191,13 +1191,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
         <v>26</v>
@@ -1205,13 +1205,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D27" s="1">
         <v>27</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1">
         <v>28</v>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1">
         <v>31</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1">
         <v>32</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1">
         <v>33</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1">
         <v>34</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D36" s="1">
         <v>36</v>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1">
         <v>37</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="D38" s="1">
         <v>38</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1">
         <v>39</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1">
         <v>41</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D42" s="1">
         <v>42</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D43" s="1">
         <v>43</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1">
         <v>47</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1">
         <v>48</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1">
         <v>51</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1">
         <v>52</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D53" s="1">
         <v>53</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D54" s="1">
         <v>54</v>
@@ -1597,13 +1597,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D55" s="1">
         <v>55</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1">
         <v>56</v>
@@ -1625,13 +1625,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D57" s="1">
         <v>57</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1">
         <v>59</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D60" s="1">
         <v>60</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D61" s="1">
         <v>61</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D62" s="1">
         <v>62</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D63" s="1">
         <v>63</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1">
         <v>64</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1">
         <v>65</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D66" s="1">
         <v>66</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D67" s="1">
         <v>67</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1">
         <v>68</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D69" s="1">
         <v>69</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D71" s="1">
         <v>71</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D72" s="1">
         <v>72</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D73" s="1">
         <v>73</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1">
         <v>74</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D75" s="1">
         <v>75</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D76" s="1">
         <v>76</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1">
         <v>77</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D78" s="1">
         <v>78</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D79" s="1">
         <v>79</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D80" s="1">
         <v>80</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>155</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D82" s="1">
         <v>82</v>
